--- a/2_Keywords/vaccine_keywords.xlsx
+++ b/2_Keywords/vaccine_keywords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burce/Desktop/Corpus write-up/Github/2. Keywords/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burce/Desktop/Corpus write-up/Github/2_Keywords/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B8A56B-9B0F-974C-A08D-1CDB684647CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9857F-89BE-854D-930C-14CBBEBDE682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{180D736F-3AD5-EB42-B094-8046CF2DF3AA}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16080" xr2:uid="{180D736F-3AD5-EB42-B094-8046CF2DF3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Keyword:</t>
   </si>
@@ -102,13 +102,55 @@
   </si>
   <si>
     <t>vaccine toxin</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>VAC</t>
+  </si>
+  <si>
+    <t>VSE</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
+  <si>
+    <t>VCO</t>
+  </si>
+  <si>
+    <t>VAU</t>
+  </si>
+  <si>
+    <t>VIS</t>
+  </si>
+  <si>
+    <t>VAI</t>
+  </si>
+  <si>
+    <t>VAS</t>
+  </si>
+  <si>
+    <t>VEF</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>VAP</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>TOX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +170,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,11 +205,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18951510-54EA-1847-AEFC-46C73C071F6B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,116 +557,158 @@
     <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
